--- a/JinRui/金瑞服务器外网访问列表.xlsx
+++ b/JinRui/金瑞服务器外网访问列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>金瑞服务器及其端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,25 @@
   </si>
   <si>
     <t>盘后下载行情数据和交易日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金瑞服务器郑州和大连机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上期机房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>访问行情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,12 +119,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -144,11 +170,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A10:B28" totalsRowShown="0">
-  <autoFilter ref="A10:B28"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A10:C26" totalsRowShown="0">
+  <autoFilter ref="A10:C26">
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <tableColumns count="3">
     <tableColumn id="1" name="外网服务器"/>
     <tableColumn id="2" name="用途"/>
+    <tableColumn id="3" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -439,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -451,7 +480,7 @@
     <col min="2" max="2" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -475,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -483,7 +512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -491,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -499,15 +528,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -515,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -523,12 +555,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
